--- a/data/info.wendy.batch1.batch2.sam.xlsx
+++ b/data/info.wendy.batch1.batch2.sam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielamontejokovacevich/Dropbox (Cambridge University)/helicoverpa/15.photos/2.collection.sorted/batch2_jacob/lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/sm2712_cam_ac_uk/Documents/Summer Research Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FED3AF-91B6-A442-A1B7-1315B7AC9CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2360" windowWidth="28040" windowHeight="17440" xr2:uid="{6B2692C8-0D41-4E43-B7E9-ED7E9C02DE6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B2692C8-0D41-4E43-B7E9-ED7E9C02DE6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3139,12 +3139,12 @@
   <dimension ref="A1:E903"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0.99999299100000005</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0.97413608399999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>0.96716928800000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>0.99999994699999994</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0.99723136800000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0.99117388399999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>0.99999407900000004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0.99359794599999995</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0.99044192799999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0.89849919199999995</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0.98277306799999997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0.842148907</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>0.89343475500000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0.95933596700000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>8.4655132999999994E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>0.98384049900000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0.98099644399999997</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0.98393146300000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>0.99997814299999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>1.1442206E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0.99184897400000005</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0.56891055099999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>0.99674658800000004</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>0.99998888600000002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0.98829921899999995</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>0.95911553299999996</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>0.990394628</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0.98822300399999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>0.97679203199999998</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0.97729225500000005</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>0.97539906099999996</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0.98465514399999998</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0.98831836100000003</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0.62801437900000001</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>0.990118108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0.98640615200000004</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0.98895802200000005</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0.98707200799999995</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>0.99953450600000004</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>0.99989388899999998</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0.98637114199999998</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0.96656618699999997</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>4.32E-9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>3.353852E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0.96661976400000005</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>1.5173795E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>0.99597173800000005</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0.93162250899999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>0.98301107799999998</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>2.9000000000000002E-8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>3.5798036999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>2.8204032E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>0.70256397800000003</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>0.94025672699999996</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>0.99320519799999996</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>0.99150307900000001</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>0.99529193699999996</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0.97021892300000001</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0.99999989199999995</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0.94041686899999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>0.97692881600000003</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>0.98914804300000003</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0.96713794900000005</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0.97208337099999997</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0.99656780300000003</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>0.93426271299999997</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0.99414477899999998</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0.996659301</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>0.999178919</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0.98739729200000004</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0.98349088900000003</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0.99117132100000005</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>0.99564338399999996</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0.98522359900000001</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>0.99176125599999998</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0.98337427300000002</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>0.98857403499999996</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>0.99076229100000002</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>0.98420755999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>0.98901246799999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>0.97238453999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>0.99679185100000001</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>0.98312322600000002</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0.969331418</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>0.99278276300000001</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>0.99598704599999999</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>0.99890090099999995</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0.98155298499999999</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>0.98052799400000001</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>0.99999999399999995</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>4.3214009999999999E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>0.14421757900000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>0.98610109199999996</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>0.155396219</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>0.99459622700000005</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>0.97774895100000003</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0.99987212700000005</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>4.2856591999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0.98435625400000004</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>0.19753627800000001</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>0.225649554</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>0.98032274399999997</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>0.94351942</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>0.96318745900000002</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>0.95335323800000005</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>1.1414785E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1.5258947E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>2.0794568999999999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>0.96053233699999996</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>0.60343490499999997</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0.90233434899999998</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>0.99950087099999996</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>0.74274092199999997</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>0.65606959600000003</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>0.98619586400000003</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>0.99996956199999998</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.98108086500000002</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>0.99516078600000002</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0.88430235400000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>0.98225580400000001</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>0.95659571799999998</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>0.97971918499999999</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0.967858993</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>0.99999998999999995</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>0.99084407200000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>0.99926508599999997</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>0.97469387699999999</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>0.98508574100000001</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>0.992146627</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>0.99166003899999999</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>0.99997884299999995</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>0.99664639200000005</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0.99390230700000004</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>0.99574175899999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>0.98807224500000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>0.98780951400000006</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>0.98401228900000004</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>0.98129823999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>0.937891692</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>0.99999990000000005</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>1.0261599999999999E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>3.5566451999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>3.6940767999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>0.98708384699999996</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>0.86517256300000001</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>0.99554724400000005</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>0.96619868099999995</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>0.96699665999999995</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>0.99345777599999996</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>0.99056403400000004</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>0.98114306399999995</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>0.99999996000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>1.42504E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>0.97887615500000003</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>0.99999098500000005</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>6.1183540000000003E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>2.5239429999999998E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>0.99028480600000002</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>0.97820868000000005</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>0.47839723200000001</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>0.95617042500000005</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>0.953786939</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>0.982711683</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>552</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>708</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>549</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>0.98486487899999997</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>301</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>0.97228849799999995</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>548</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>555</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>0.96334575200000006</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>303</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>0.87782533900000004</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>0.98769858499999996</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>0.99417660399999996</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>0.95097853899999996</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>0.954961964</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>0.85591394899999995</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>0.96755670199999999</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>0.99999996800000002</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>0.96805450299999996</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>0.99999990000000005</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>0.969740253</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>0.97009875899999998</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>0.998503896</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>0.99463984999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>0.95594282200000003</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>0.98745112700000004</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>0.99999997600000001</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>0.190600032</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>0.96641466399999998</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>4.9914288000000001E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>0.51937133999999996</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>0.94221408900000003</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>0.86608737999999996</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>0.98285564000000003</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>0.973717897</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>0.98189521599999996</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>0.97261537899999995</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>0.98877322099999998</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>0.99098773600000001</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>0.98393486399999996</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>0.96375166499999998</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>0.97870994899999997</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>0.36768820099999999</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>0.99832944000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>3.6372016E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>0.89370428800000001</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>0.97471187999999997</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>0.93947658099999998</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>0.99999969799999999</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>0.99681834899999999</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>0.985733101</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>0.97766045999999995</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>0.97140916399999999</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>0.99495109999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>0.999999941</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>0.96213863700000002</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.88990644799999996</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>0.54616332400000001</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>0.98971226199999995</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>0.98635276199999999</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>0.95500961299999998</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>0.94644610900000004</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>0.98857259399999997</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>0.85492068399999999</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>0.96410758799999996</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>0.98698296399999996</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>0.98727675000000004</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>0.97093022299999998</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>0.99999977200000001</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>0.99175809299999995</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>0.99809589300000001</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>0.99999999500000003</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>0.69366581299999996</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>0.98735487600000005</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>0.99243716800000004</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>0.16131631199999999</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>0.93266618800000001</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>0.98537680800000005</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>0.96008336100000002</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>0.42749417200000001</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>0.98662356799999995</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>0.93731767700000002</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>0.106460099</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>0.99700092200000001</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>0.99676347099999996</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>0.97043129800000005</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>0.96442382800000004</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>0.95166732399999998</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>0.98049373100000004</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>0.95218537199999997</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>0.99764889599999995</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>0.954022763</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>0.98631254499999998</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>0.97921919700000004</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>0.98152202</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>498</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>0.99700199300000003</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>501</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>0.99270054399999996</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>504</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>0.97786144900000005</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>505</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>506</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>0.995177125</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>507</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>508</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>509</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>0.99999556999999994</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>0.99534298099999996</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>0.99205486099999995</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>512</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>514</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>0.97095127299999995</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>516</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>0.93670826900000004</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>517</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>0.96851581600000003</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>518</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>0.84236648300000005</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>519</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>0.837224949</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>520</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>522</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>523</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>524</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>525</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>0.99157754399999998</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>527</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>528</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>529</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>530</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>531</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>532</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>533</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>0.96749325100000005</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>534</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>0.99043681299999997</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>535</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>536</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>0.99109214400000001</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>537</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>538</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0.978020903</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>539</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>0.93983211200000005</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>540</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>541</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>0.97185346500000003</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>542</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>0.98431465900000004</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>543</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>0.97796959400000005</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>544</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>0.96379086800000002</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>304</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>0.84915236199999999</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>558</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>305</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>0.984255086</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>546</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>0.99991194400000005</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>306</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>0.98467328099999996</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>560</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>0.952411326</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>559</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>302</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>554</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>0.98409231699999999</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>551</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>0.93703931900000004</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>553</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>0.988480056</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>556</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>0.98330337099999998</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>545</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>0.98363695500000004</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>547</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>0.94765880700000005</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>557</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>0.98534593100000001</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>550</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>0.99065517400000003</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>561</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>562</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>563</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>564</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>565</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>0.93867752000000004</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>566</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>0.98157371599999999</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>567</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>0.98523946399999995</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>568</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>0.97556425400000002</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>569</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>0.95178534800000003</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>570</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>571</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>0.99756642900000003</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>572</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>0.97600020099999996</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>573</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>0.95246828299999997</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>574</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>0.97071414099999997</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>575</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>576</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>0.95858633500000001</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>577</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>0.98911059000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>578</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>0.97039492599999999</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>579</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>0.93822414799999998</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>580</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>0.99800604699999995</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>581</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>582</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>0.99830263799999996</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>583</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>0.99772589099999998</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>584</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>585</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>586</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>587</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>588</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>589</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>0.98547725500000005</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>590</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>591</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>592</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>0.97333564800000005</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>593</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>594</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>595</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>0.98365275399999996</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>596</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>0.99999904900000003</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>597</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>0.95502691100000003</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>598</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>0.92389722299999999</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>599</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>600</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>0.978133323</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>601</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>0.98494728499999995</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>602</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>0.29286570000000001</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>603</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>0.94690487700000003</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>604</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>605</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>606</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>0.56984967500000006</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>607</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>0.90288851800000003</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>608</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>609</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>610</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>611</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>612</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>0.97078843000000004</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>613</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>614</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>615</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>0.99276703600000005</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>616</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>0.98880193699999996</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>617</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>618</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>619</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>620</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>621</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>0.93694172099999995</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>622</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>0.97300710199999996</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>623</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>0.97074773999999997</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>624</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>0.86355580899999995</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>625</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>0.81765819200000001</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>626</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>627</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>628</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>0.99874182300000003</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>629</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>0.96177272800000002</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>630</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>631</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>632</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>633</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>0.99992438800000005</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>634</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>0.99515254399999997</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>635</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>0.95128320799999999</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>636</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>637</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>0.99011547200000005</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>638</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>639</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>0.99610022300000001</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>640</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>0.97973860999999995</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>641</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>642</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>0.97185069099999999</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>643</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>0.96114527000000005</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>644</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>645</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>0.97912471999999995</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>646</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>0.94853586499999998</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>647</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>0.98654112999999999</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>648</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>649</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>0.79727981199999998</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>650</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>0.95692330299999995</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>651</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>0.98283934699999997</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>652</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>0.81088440699999997</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>653</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>0.94813065699999999</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>654</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>0.97859341499999997</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>655</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>0.91118269900000004</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>656</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>0.82866464500000003</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>657</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>658</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>659</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>2.6396260000000001E-2</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>660</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>661</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>0.82433783299999996</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>662</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>663</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>0.12944067200000001</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>664</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>665</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>666</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>667</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>668</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>669</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>670</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>2.7177455E-2</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>671</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>672</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>673</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>674</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>675</v>
       </c>
@@ -14636,7 +14636,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>676</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>0.99010431399999999</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>677</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>0.96325762699999995</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>678</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>0.97614200799999995</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>679</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>0.99230094599999996</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>680</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>0.95848628999999996</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>681</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>0.99321472799999999</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>682</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>0.95938548300000004</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>683</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>0.94342194099999999</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>684</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>0.979374788</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>685</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>686</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>0.95249463899999998</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>687</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>688</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>689</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>690</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>691</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>692</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>693</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>694</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>695</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>696</v>
       </c>
@@ -14993,7 +14993,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>697</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>0.97985262799999995</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>698</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>0.99409995799999995</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>699</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>0.97585548600000005</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>700</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>0.97003893100000005</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>701</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>702</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>0.99488808900000003</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>703</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>0.99721095699999995</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>704</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>0.99092640600000004</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>705</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>0.95542663800000005</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>706</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>0.99985056400000005</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>300</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>0.98836412200000001</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>707</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>0.98067092700000003</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>709</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>0.99557645500000003</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>710</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>711</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>712</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>713</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>714</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>715</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>0.99494850499999998</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>716</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>0.90459518000000005</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>717</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>0.98606046999999997</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>718</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>0.99566533999999995</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>719</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>0.94967012200000001</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>720</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>0.993682332</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>721</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>722</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>0.97557765200000002</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>723</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>0.96042215799999997</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>724</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>0.96854721399999999</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>725</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>0.98600645399999998</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>726</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>727</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>0.93795488999999999</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>728</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>0.98037526600000002</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>729</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>0.987001774</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>730</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>0.97333465600000002</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>731</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>0.97948988599999998</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>732</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>733</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>734</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>735</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>736</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>737</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>738</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>739</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>740</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>741</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>742</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>743</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>744</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>745</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>746</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>1.3927225999999999E-2</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>747</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>748</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>749</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>750</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>751</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>9.4322060000000003E-3</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>752</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>753</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>754</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>755</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>756</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>7.7375166999999995E-2</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>757</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>758</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>759</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>760</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>761</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>762</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>763</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>764</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>765</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>766</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>4.6907029000000003E-2</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>767</v>
       </c>
@@ -16200,7 +16200,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>768</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>769</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>770</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>771</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>4.7582599000000003E-2</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>772</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>773</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>774</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>775</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>776</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>1.0280193E-2</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>777</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>1.3043598999999999E-2</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>778</v>
       </c>
@@ -16387,7 +16387,7 @@
         <v>0.142565057</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>779</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>5.1647090999999999E-2</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>780</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>781</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>782</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>783</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>5.5850769999999999E-3</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>784</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>785</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>786</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>787</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>0.99898572399999996</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>788</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>0.94306159599999995</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>789</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>0.91884048200000001</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>790</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>0.91029986299999999</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>791</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>0.97016701699999996</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>792</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>0.98401319099999995</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>793</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>0.95783658999999999</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>794</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>0.923711799</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>795</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>0.85764642300000005</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>796</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>797</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>0.99286942300000003</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>798</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>0.99514369999999996</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>799</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>0.94797388199999999</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>800</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>801</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>0.98126127900000004</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>802</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>0.94751290499999996</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>803</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>0.90734911699999998</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>804</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>0.98599163599999995</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>805</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>806</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>807</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>808</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>809</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>810</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>811</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>0.98672824800000003</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>812</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>0.99048599400000004</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>813</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>0.96641894900000003</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>814</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>815</v>
       </c>
@@ -17016,7 +17016,7 @@
         <v>0.98881026400000005</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>816</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>817</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>0.95852033299999995</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>818</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>0.97016781500000004</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>819</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>820</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>821</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>0.99807230000000002</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>822</v>
       </c>
@@ -17135,7 +17135,7 @@
         <v>0.97738301900000002</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>823</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>824</v>
       </c>
@@ -17169,7 +17169,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>825</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>826</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>0.99986198100000001</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>827</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>828</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>829</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>0.99194731700000005</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>830</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>0.94283538200000006</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>831</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>0.97171394899999997</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>832</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>833</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>0.995874708</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>834</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>835</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>836</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>837</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>838</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>839</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>840</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>8.3147599999999992E-3</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>841</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>842</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>843</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>844</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>1.4329819000000001E-2</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>845</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>846</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>847</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>848</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>849</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>850</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>1.5051013E-2</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>851</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>852</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>853</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>854</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>855</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>856</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>857</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>858</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>859</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>8.9773790000000006E-3</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>860</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>861</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>862</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>863</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>864</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>865</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>1.353823E-2</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>866</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>867</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>868</v>
       </c>
@@ -17917,7 +17917,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>869</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>870</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>871</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>872</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>873</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>874</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>875</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>876</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>877</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>878</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>9.7899999999999994E-6</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>879</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>880</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>881</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>882</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>883</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>884</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>885</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>886</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>887</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>888</v>
       </c>
@@ -18257,7 +18257,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>889</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>890</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>891</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>892</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>893</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>894</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>895</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>896</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>0.97865889699999997</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>897</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>0.98988794199999997</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>898</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>0.987712853</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>899</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>0.96464393500000001</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>900</v>
       </c>
@@ -18461,7 +18461,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>901</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>902</v>
       </c>
